--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prduhan\OneDrive - Capgemini\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1C6630-9437-4B27-9E95-FDCE22FB68F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -35,18 +36,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="222">
   <si>
     <t>Date</t>
   </si>
@@ -681,12 +676,6 @@
     <t>M S Thejashree (thejms)</t>
   </si>
   <si>
-    <t>Singh Rajpal (rajpasin)</t>
-  </si>
-  <si>
-    <t>Learning spring boot.</t>
-  </si>
-  <si>
     <t>K S Nayana (nayans)</t>
   </si>
   <si>
@@ -707,11 +696,23 @@
   <si>
     <t>Mahapatra Rakesh (rakerake)</t>
   </si>
+  <si>
+    <t>Kattubadi Manjunatha (mamanjun)</t>
+  </si>
+  <si>
+    <t>Not confirmed from RMG</t>
+  </si>
+  <si>
+    <t>Working on previous project without project code</t>
+  </si>
+  <si>
+    <t>Going through DevOps training</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1305,7 +1306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -18050,7 +18051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18391,7 +18392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18738,7 +18739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19087,7 +19088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19439,7 +19440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -19791,7 +19792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20143,7 +20144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -20495,11 +20496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20638,6 +20639,9 @@
       <c r="C7" s="56" t="s">
         <v>28</v>
       </c>
+      <c r="D7" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="E7">
         <v>9</v>
       </c>
@@ -20812,7 +20816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20829,7 +20833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20846,7 +20850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20863,24 +20867,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="12">
         <v>139666</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="51">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F20" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20897,7 +20904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20914,7 +20921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20931,7 +20938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20948,7 +20955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20965,93 +20972,92 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="27">
-        <v>46014906</v>
+        <v>142742</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="27">
-        <v>142742</v>
+        <v>142584</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D27" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="27">
-        <v>142584</v>
+        <v>100578</v>
       </c>
       <c r="C28" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="B29" s="27">
-        <v>100578</v>
+        <v>176569</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>216</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="27">
-        <v>176569</v>
+        <v>190871</v>
       </c>
       <c r="C30" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="35">
+        <v>30</v>
+      </c>
+      <c r="B31" s="33">
+        <v>154223</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="14">
-        <v>30</v>
-      </c>
-      <c r="B31" s="27">
-        <v>190871</v>
-      </c>
-      <c r="C31" s="27" t="s">
+      <c r="D31" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21060,7 +21066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -21296,7 +21302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21521,7 +21527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21747,7 +21753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -22007,7 +22013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22259,7 +22265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -22508,7 +22514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -22773,7 +22779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1C6630-9437-4B27-9E95-FDCE22FB68F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74242D8-3E07-457B-9C1A-09C2F430E99C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kWFHmNGnqNKFGijJvfabpUvI1EKsE0VWrBedqe5ViS0byVu+xezzeGL/1vzrR4TYE2jxLdUqJ5l+ZYPmwCdWxg==" workbookSaltValue="C6ZiAuHqpsuNFxKAC/BOLA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -30,6 +31,7 @@
     <sheet name="Status-07-04-2020" sheetId="31" r:id="rId15"/>
     <sheet name="Status-10-04-2020" sheetId="32" r:id="rId16"/>
     <sheet name="Status-17-04-2020" sheetId="34" r:id="rId17"/>
+    <sheet name="Status-20-04-2020" sheetId="35" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="222">
   <si>
     <t>Date</t>
   </si>
@@ -20499,7 +20501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -20887,7 +20889,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21042,6 +21044,508 @@
       <c r="D30" s="5" t="s">
         <v>215</v>
       </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="35">
+        <v>30</v>
+      </c>
+      <c r="B31" s="33">
+        <v>154223</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="pCQypCgrCIGaj0R5jruDogmD1nva92vodDdkBb/0qqPN0/uJpfkjdU9RzLF0RGBfP8/w1jW70Gd8Ji6BpvBRdA==" saltValue="4yBEc5XeWsNGVHPemtIR9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB8ECD0-792E-4F36-AA74-889257A30E5D}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55">
+        <v>94597</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>67908</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>156137</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="55">
+        <v>189815</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="55">
+        <v>119065</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="16">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>185010</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>154447</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="18">
+        <v>9</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
+        <v>9</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="58">
+        <v>175816</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="51">
+        <v>9</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="55">
+        <v>191221</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="18">
+        <v>9</v>
+      </c>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="55">
+        <v>46014906</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="18">
+        <v>9</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27">
+        <v>156635</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="18">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27">
+        <v>168293</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="18">
+        <v>9</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27">
+        <v>151146</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27">
+        <v>156996</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27">
+        <v>185599</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27">
+        <v>96340</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27">
+        <v>108444</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12">
+        <v>139666</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="51">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27">
+        <v>141023</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27">
+        <v>178684</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27">
+        <v>187084</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27">
+        <v>46013133</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27">
+        <v>151158</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27">
+        <v>142742</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12">
+        <v>142584</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12">
+        <v>100578</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12">
+        <v>176569</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12">
+        <v>190871</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35">

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74242D8-3E07-457B-9C1A-09C2F430E99C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DFA63E-0133-42FB-9F6A-667D66FACFCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kWFHmNGnqNKFGijJvfabpUvI1EKsE0VWrBedqe5ViS0byVu+xezzeGL/1vzrR4TYE2jxLdUqJ5l+ZYPmwCdWxg==" workbookSaltValue="C6ZiAuHqpsuNFxKAC/BOLA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,17 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DFA63E-0133-42FB-9F6A-667D66FACFCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kWFHmNGnqNKFGijJvfabpUvI1EKsE0VWrBedqe5ViS0byVu+xezzeGL/1vzrR4TYE2jxLdUqJ5l+ZYPmwCdWxg==" workbookSaltValue="C6ZiAuHqpsuNFxKAC/BOLA==" workbookSpinCount="100000" lockStructure="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -33,9 +27,9 @@
     <sheet name="Status-17-04-2020" sheetId="34" r:id="rId17"/>
     <sheet name="Status-20-04-2020" sheetId="35" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -43,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="223">
   <si>
     <t>Date</t>
   </si>
@@ -710,12 +704,15 @@
   <si>
     <t>Going through DevOps training</t>
   </si>
+  <si>
+    <t>attending Training of Oracle PL/SQL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,7 +1052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1107,7 +1104,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1301,33 +1298,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16384" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16384" ht="30">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1377,7 +1374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16384">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1392,7 +1389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1413,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16384" ht="30">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1434,7 +1431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16384" ht="30">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1455,7 +1452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16384">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1476,7 +1473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16384" ht="105">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1500,7 +1497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16384" ht="60">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1524,7 +1521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16384" ht="45">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1548,7 +1545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16384">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1569,7 +1566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16384" s="4" customFormat="1">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17963,7 +17960,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16384" ht="75">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -17984,10 +17981,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16384">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16384">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18007,70 +18004,70 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kOaXWcI4l4I9GK58pzxvuJtTnR9/lNm0Nv3i8PhQgNQkx5+GH7n4Nq/x/yVywL54ZnuRMOr07SENX89uVTYIqw==" saltValue="r1Yeom9g3/jhqlxIiwFehQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18093,7 +18090,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18111,7 +18108,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18128,7 +18125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18145,7 +18142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18162,7 +18159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18179,7 +18176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18200,7 +18197,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18217,7 +18214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18237,7 +18234,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18255,7 +18252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18276,7 +18273,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18292,7 +18289,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18310,7 +18307,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18328,7 +18325,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18345,7 +18342,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18359,7 +18356,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18376,7 +18373,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18394,24 +18391,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18434,7 +18431,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18452,7 +18449,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18469,7 +18466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18486,7 +18483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18503,7 +18500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18520,7 +18517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18541,7 +18538,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18555,7 +18552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18578,7 +18575,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18596,7 +18593,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18617,7 +18614,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18633,7 +18630,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18654,7 +18651,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18672,7 +18669,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18689,7 +18686,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18706,7 +18703,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18723,7 +18720,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18741,24 +18738,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18781,7 +18778,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18799,7 +18796,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18816,7 +18813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18833,7 +18830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18850,7 +18847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18867,7 +18864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18888,7 +18885,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18902,7 +18899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18925,7 +18922,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18943,7 +18940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18964,7 +18961,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18980,7 +18977,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19001,7 +18998,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19019,7 +19016,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19038,7 +19035,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19055,7 +19052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19072,7 +19069,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19090,24 +19087,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19130,7 +19127,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19148,7 +19145,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19165,7 +19162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19182,7 +19179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19199,7 +19196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19216,7 +19213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19240,7 +19237,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19254,7 +19251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19277,7 +19274,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19295,7 +19292,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19316,7 +19313,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19332,7 +19329,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19353,7 +19350,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19371,7 +19368,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19390,7 +19387,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19407,7 +19404,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19424,7 +19421,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19442,24 +19439,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19482,7 +19479,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19500,7 +19497,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19517,7 +19514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19534,7 +19531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19551,7 +19548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19568,7 +19565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19592,7 +19589,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19606,7 +19603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19629,7 +19626,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19647,7 +19644,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19668,7 +19665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19684,7 +19681,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19705,7 +19702,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19723,7 +19720,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19742,7 +19739,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19759,7 +19756,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19776,7 +19773,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19794,24 +19791,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19834,7 +19831,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19852,7 +19849,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19869,7 +19866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19886,7 +19883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19903,7 +19900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19920,7 +19917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19944,7 +19941,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19958,7 +19955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19981,7 +19978,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19999,7 +19996,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20020,7 +20017,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20036,7 +20033,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20057,7 +20054,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20075,7 +20072,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20094,7 +20091,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20111,7 +20108,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20128,7 +20125,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20146,24 +20143,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20186,7 +20183,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20204,7 +20201,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20221,7 +20218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20238,7 +20235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20255,7 +20252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20272,7 +20269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20296,7 +20293,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20310,7 +20307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20333,7 +20330,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20351,7 +20348,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20372,7 +20369,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20388,7 +20385,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20409,7 +20406,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20427,7 +20424,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20446,7 +20443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20463,7 +20460,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20480,7 +20477,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20498,24 +20495,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20538,7 +20535,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20556,7 +20553,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20573,7 +20570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20590,7 +20587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20607,7 +20604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20631,7 +20628,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20648,7 +20645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20671,7 +20668,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20689,7 +20686,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20712,7 +20709,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20730,7 +20727,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20751,7 +20748,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20769,7 +20766,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20787,7 +20784,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20804,7 +20801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20818,7 +20815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20835,7 +20832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20852,7 +20849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20869,7 +20866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20889,7 +20886,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20906,7 +20903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20923,7 +20920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20940,7 +20937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20957,7 +20954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20974,7 +20971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -20989,7 +20986,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21003,7 +21000,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21017,7 +21014,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21031,7 +21028,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21045,7 +21042,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21062,30 +21059,30 @@
       <c r="F31" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pCQypCgrCIGaj0R5jruDogmD1nva92vodDdkBb/0qqPN0/uJpfkjdU9RzLF0RGBfP8/w1jW70Gd8Ji6BpvBRdA==" saltValue="4yBEc5XeWsNGVHPemtIR9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB8ECD0-792E-4F36-AA74-889257A30E5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21105,7 +21102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21115,13 +21112,15 @@
       <c r="C2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="E2" s="14">
         <v>9</v>
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21136,7 +21135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21150,7 +21149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21165,7 +21164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21181,7 +21180,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21195,7 +21194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21213,7 +21212,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21229,7 +21228,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21247,7 +21246,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21263,7 +21262,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21279,7 +21278,7 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21295,7 +21294,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21310,7 +21309,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21324,7 +21323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21338,7 +21337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21352,7 +21351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21366,7 +21365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21380,7 +21379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21398,7 +21397,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21412,7 +21411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21426,7 +21425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21440,7 +21439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21454,7 +21453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21468,7 +21467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21483,7 +21482,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -21499,7 +21498,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21515,7 +21514,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21531,7 +21530,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21547,7 +21546,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21570,23 +21569,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21606,7 +21605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -21626,7 +21625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21638,7 +21637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21652,7 +21651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21666,7 +21665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -21680,7 +21679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21694,7 +21693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -21708,7 +21707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.1" customHeight="1">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -21725,7 +21724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -21743,7 +21742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -21758,7 +21757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -21771,7 +21770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="27.6" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -21785,7 +21784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -21800,28 +21799,28 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+YsNC2LEwkQZtPvrVg+RTTJKRC7s33CKEuhqXf/gRoLi3Ko88ZEeRnUTxARGY81xPgOfYAnsNgVeV6MeLCYWjg==" saltValue="SCVr6IMqSLq4iVyOsKru9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21841,7 +21840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -21858,7 +21857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21872,7 +21871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21886,7 +21885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21900,7 +21899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -21914,7 +21913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21928,7 +21927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -21942,7 +21941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -21960,7 +21959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -21978,7 +21977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -21996,7 +21995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22010,7 +22009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22025,29 +22024,29 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y4VhTOLVrkF+DIJYCmRqR5XOUUx53uzjmJJqKVSShOL/wVORbiB8qpcN359mMA0t8QSNiQr+PoXB7vAbwv/H/Q==" saltValue="wv1BwiANv/07k1WdbDRsLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22067,7 +22066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22084,7 +22083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22098,7 +22097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22115,7 +22114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22129,7 +22128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -22143,7 +22142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -22157,7 +22156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22171,7 +22170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22189,7 +22188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -22204,7 +22203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22222,7 +22221,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22236,7 +22235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22251,29 +22250,29 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k4O/GBzmHEr5E9TreHcabxmUDX3aJp9GIVPev88mcT0fNv0tG/5YSctogBChyqFHXpf41u/cUQEP2Rkghou/0g==" saltValue="32i46YCv2uHOHDaOWpm8bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22293,7 +22292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22311,7 +22310,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22328,7 +22327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22342,7 +22341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22357,7 +22356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22372,7 +22371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -22386,7 +22385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="47.1" customHeight="1">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22403,7 +22402,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -22419,7 +22418,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -22435,7 +22434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -22448,7 +22447,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -22461,7 +22460,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="30">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -22476,7 +22475,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22491,7 +22490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22505,7 +22504,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -22517,23 +22516,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22553,7 +22552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22571,7 +22570,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22588,7 +22587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22602,7 +22601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22615,7 +22614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22630,7 +22629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22646,7 +22645,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22660,7 +22659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22675,7 +22674,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22691,7 +22690,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -22707,7 +22706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22720,7 +22719,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22733,7 +22732,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22748,7 +22747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22769,23 +22768,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22805,7 +22804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22821,7 +22820,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22835,7 +22834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22849,7 +22848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22862,7 +22861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22877,7 +22876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22893,7 +22892,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="30">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22907,7 +22906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22922,7 +22921,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22938,7 +22937,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -22956,7 +22955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22969,7 +22968,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22982,7 +22981,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22997,7 +22996,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23018,23 +23017,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -23054,7 +23053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -23072,7 +23071,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -23088,7 +23087,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -23104,7 +23103,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -23120,7 +23119,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -23136,7 +23135,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -23152,7 +23151,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -23168,7 +23167,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="117" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -23184,7 +23183,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -23200,7 +23199,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -23216,7 +23215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -23232,7 +23231,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -23248,7 +23247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -23262,7 +23261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -23283,24 +23282,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23323,7 +23322,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -23341,7 +23340,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23358,7 +23357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23375,7 +23374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23392,7 +23391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -23409,7 +23408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -23427,7 +23426,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23444,7 +23443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23462,7 +23461,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -23480,7 +23479,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -23498,7 +23497,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -23514,7 +23513,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -23530,7 +23529,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -23546,7 +23545,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -23560,7 +23559,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -23578,7 +23577,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -23595,7 +23594,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
